--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_45.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_45.xlsx
@@ -422,7 +422,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -680,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -852,7 +852,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -895,7 +895,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ITA17</t>
+          <t>SLO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">

--- a/OnBoard/output/trust/catch_sample/Catch_sample_Trust_45.xlsx
+++ b/OnBoard/output/trust/catch_sample/Catch_sample_Trust_45.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -862,12 +862,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SERAHEP</t>
         </is>
       </c>
       <c r="F12">
@@ -910,7 +910,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F13">
@@ -953,7 +953,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>ARNOTHO</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F14">
@@ -996,7 +996,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F15">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>GOBINIG</t>
         </is>
       </c>
       <c r="F16">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>GOBINIG</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F17">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F18">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SPICFLE</t>
         </is>
       </c>
       <c r="F19">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F20">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SPICFLE</t>
+          <t>GOBIQUA</t>
         </is>
       </c>
       <c r="F21">
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F22">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>GOBIQUA</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F23">
@@ -1355,92 +1355,6 @@
         </is>
       </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>SOLEVUL</t>
-        </is>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>-1</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>SLO</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>AEQUOPE</t>
-        </is>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>-1</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>SIMRANDO</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
